--- a/data/income_statement/2digits/total/33_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/33_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>33-Repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>33-Repair and installation of machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4077748.87803</v>
@@ -956,37 +862,42 @@
         <v>4305834.8528</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5499673.212309999</v>
+        <v>5505990.7733</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6121903.06114</v>
+        <v>6126147.27558</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8265197.201320001</v>
+        <v>8268306.09341</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10691707.42662</v>
+        <v>10721416.83419</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>13352897.72143</v>
+        <v>13732126.52777</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15569958.9355</v>
+        <v>15956841.92607</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>21288827.53744</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>29803793.21543</v>
+        <v>29893488.36424</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>33825224.55194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34423710.76076</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>42121200.873</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2830347.59981</v>
@@ -995,37 +906,42 @@
         <v>3252110.21715</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4307894.647369999</v>
+        <v>4308880.825270001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4775922.139359999</v>
+        <v>4777258.29377</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6638603.29128</v>
+        <v>6641689.51645</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8853954.679</v>
+        <v>8878192.09998</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>11171633.79592</v>
+        <v>11438393.14716</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>13003650.53285</v>
+        <v>13367183.80569</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>16993270.59822</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22797810.68696</v>
+        <v>22882020.293</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>25356785.08686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25889909.91531</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>31999315.853</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1172677.64199</v>
@@ -1034,76 +950,86 @@
         <v>981463.6293500001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1088212.94784</v>
+        <v>1093534.96075</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1231282.46351</v>
+        <v>1234183.04582</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1499620.53796</v>
+        <v>1499640.89954</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1669661.69779</v>
+        <v>1674729.64035</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2015311.11401</v>
+        <v>2119260.38643</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2346678.64129</v>
+        <v>2365418.46231</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>4065123.93607</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6671579.43625</v>
+        <v>6675303.571140001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>8060142.81957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8117340.716890001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9658918.115</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>74723.63623</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>72261.00630000001</v>
+        <v>72261.00629999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>103565.6171</v>
+        <v>103574.98728</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>114698.45827</v>
+        <v>114705.93599</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>126973.37208</v>
+        <v>126975.67742</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>168091.04983</v>
+        <v>168495.09386</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>165952.8115</v>
+        <v>174472.99418</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>219629.7613599999</v>
+        <v>224239.65807</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>230433.00315</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>334403.09222</v>
+        <v>336164.5001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>408296.64551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>416460.12856</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>462966.905</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>42290.61721</v>
@@ -1112,37 +1038,42 @@
         <v>59849.3034</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>70706.01525</v>
+        <v>71570.30954999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>73697.28437000001</v>
+        <v>73746.32919</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>63769.0239</v>
+        <v>63784.87037999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>134918.86237</v>
+        <v>134981.97012</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>179674.33437</v>
+        <v>180182.82018</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>236234.38552</v>
+        <v>282593.91721</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>420391.2033100001</v>
+        <v>420391.20331</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>528977.78162</v>
+        <v>529191.6904899999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>619294.5716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>624371.4546800001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>870787.559</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>31858.25982</v>
@@ -1151,40 +1082,45 @@
         <v>49042.86682</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>57784.99138</v>
+        <v>58649.28568</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>54088.77629000001</v>
+        <v>54094.00182</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>46283.41689</v>
+        <v>46296.94512</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>115110.95373</v>
+        <v>115171.56281</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>131289.09173</v>
+        <v>131723.21733</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>208449.14717</v>
+        <v>210937.58502</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>317283.2748</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>349716.2549</v>
+        <v>349927.72769</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>500583.8136000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>504728.9611</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>742276.937</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>9739.091669999998</v>
+        <v>9739.09167</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>9723.61253</v>
@@ -1193,37 +1129,42 @@
         <v>10843.67069</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>16124.51534</v>
+        <v>16168.33463</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12533.69478</v>
+        <v>12536.01303</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>17314.95025</v>
+        <v>17317.44892</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>44660.35556</v>
+        <v>44712.16292</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>22769.86401</v>
+        <v>66200.32676000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>90457.69749000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>157102.00824</v>
+        <v>157102.27924</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>111046.7128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>111949.76443</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>108935.223</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>693.2657200000001</v>
+        <v>693.26572</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>1082.82405</v>
@@ -1232,7 +1173,7 @@
         <v>2077.35318</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3483.99274</v>
+        <v>3483.992739999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>4951.912230000001</v>
@@ -1241,25 +1182,30 @@
         <v>2492.95839</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3724.88708</v>
+        <v>3747.43993</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5015.37434</v>
+        <v>5456.005429999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>12650.23102</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>22159.51848</v>
+        <v>22161.68356</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>7664.0452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7692.72915</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>19575.399</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4035458.26082</v>
@@ -1268,37 +1214,42 @@
         <v>4245985.5494</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5428967.19706</v>
+        <v>5434420.46375</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6048205.77677</v>
+        <v>6052400.94639</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8201428.17742</v>
+        <v>8204521.22303</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10556788.56425</v>
+        <v>10586434.86407</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>13173223.38706</v>
+        <v>13551943.70759</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15333724.54998</v>
+        <v>15674248.00886</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>20868436.33413</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>29274815.43381</v>
+        <v>29364296.67375</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>33205929.98034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>33799339.30608</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>41250413.314</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3227719.88358</v>
@@ -1307,43 +1258,48 @@
         <v>3432748.28857</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4417238.95378</v>
+        <v>4419787.85154</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5039668.214879999</v>
+        <v>5041761.94117</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6864474.71067</v>
+        <v>6866632.25081</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8587438.219860001</v>
+        <v>8613093.032790001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10380872.68909</v>
+        <v>10710981.73566</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>12188511.28864</v>
+        <v>12412201.00617</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>16553530.14896</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>23034332.25729</v>
+        <v>23108978.56108</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>27312798.39394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>27822760.95484</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>33310588.274</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>683811.0560399999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>481131.1629800001</v>
+        <v>481131.16298</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>608518.61674</v>
@@ -1352,70 +1308,80 @@
         <v>645537.48427</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>778550.7789</v>
+        <v>778677.351</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>919239.83868</v>
+        <v>919440.5595000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1076674.81343</v>
+        <v>1108363.93812</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1183749.7118</v>
+        <v>1186172.23378</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2000868.0497</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2636379.93109</v>
+        <v>2650769.86798</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2986651.07891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3091231.11028</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4198174.024</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>736596.77598</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>861531.9062000001</v>
+        <v>861531.9062</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1266233.03399</v>
+        <v>1266466.9189</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>1411795.60677</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2341523.96507</v>
+        <v>2342281.67231</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2571229.16467</v>
+        <v>2579204.00729</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2972843.86108</v>
+        <v>3009864.537870001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3429522.85996</v>
+        <v>3627677.39349</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>7454457.88939</v>
+        <v>7454457.889390001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>6279225.224690001</v>
+        <v>6305712.90629</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6556405.794959999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6807654.095209999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>9508819.649</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1764397.64355</v>
@@ -1424,40 +1390,45 @@
         <v>2067524.68646</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2529859.13807</v>
+        <v>2532174.15092</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2961198.77501</v>
+        <v>2963292.5013</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3693424.39901</v>
+        <v>3694697.65981</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5040146.31112</v>
+        <v>5057625.56061</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6290099.48488</v>
+        <v>6548279.51022</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7540736.21915</v>
+        <v>7563683.71538</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>7047518.0414</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>14055888.16017</v>
+        <v>14089001.52244</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>16976182.99409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17129865.28452</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>19519099.52</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>42914.40801000001</v>
+        <v>42914.40801</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>22560.53293</v>
@@ -1472,106 +1443,121 @@
         <v>50975.56769</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>56822.90538999999</v>
+        <v>56822.90539</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>41254.52970000001</v>
+        <v>44473.74945</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>34502.49773</v>
+        <v>34667.66352</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>50686.16846999999</v>
+        <v>50686.16847</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>62838.94134</v>
+        <v>63494.26437</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>793558.52598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>794010.4648300001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>84495.08100000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>807738.3772400001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>813237.26083</v>
+        <v>813237.2608299999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1011728.24328</v>
+        <v>1014632.61221</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1008537.56189</v>
+        <v>1010639.00522</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1336953.46675</v>
+        <v>1337888.97222</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1969350.34439</v>
+        <v>1973341.83128</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2792350.69797</v>
+        <v>2840961.97193</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3145213.26134</v>
+        <v>3262047.00269</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4314906.18517</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6240483.176519999</v>
+        <v>6255318.11267</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5893131.586399999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5976578.35124</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7939825.04</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>521269.7985500001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>592801.61943</v>
+        <v>592801.6194300001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>709692.9399300001</v>
+        <v>713861.43177</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>785557.68528</v>
+        <v>787538.17963</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1001922.01253</v>
+        <v>1002933.76149</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1352147.91539</v>
+        <v>1355716.94238</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1539461.74899</v>
+        <v>1564833.89785</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1746818.2988</v>
+        <v>1853663.62426</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2130269.28086</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2787769.3823</v>
+        <v>2810931.70724</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3441280.50359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3512842.68353</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3779204.522</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2393.71147</v>
@@ -1601,19 +1587,24 @@
         <v>16193.03858</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>24284.51365</v>
+        <v>24288.18129</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>22369.41342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23062.28888</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>25104.335</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>69121.50018</v>
+        <v>69121.50017999999</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>81551.59916</v>
@@ -1622,73 +1613,83 @@
         <v>93170.60802</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>111157.5616</v>
+        <v>111158.04874</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>164253.58496</v>
+        <v>164363.40744</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>206641.00179</v>
+        <v>207207.30288</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>264162.52369</v>
+        <v>267020.64994</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>259819.76916</v>
+        <v>334290.32702</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>407853.09136</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>584597.379</v>
+        <v>585476.5994000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>680028.37076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>691561.73905</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>710417.599</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>449754.5869</v>
+        <v>449754.5869000001</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>507645.59299</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>613590.1656500001</v>
+        <v>617758.65749</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>672176.0292400002</v>
+        <v>674156.0364499999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>831220.00615</v>
+        <v>832121.9326299999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1127356.12043</v>
+        <v>1130358.84633</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1254831.77299</v>
+        <v>1277345.7956</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1453191.28462</v>
+        <v>1485566.05222</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1706223.15092</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2178887.48965</v>
+        <v>2201166.92655</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2738882.71941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2798218.6556</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3043682.588</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>286468.57869</v>
@@ -1697,37 +1698,42 @@
         <v>220435.6414</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>302035.30335</v>
+        <v>300771.18044</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>222979.87661</v>
+        <v>223100.82559</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>335031.45422</v>
+        <v>334955.21073</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>617202.429</v>
+        <v>617624.8888999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1252888.94898</v>
+        <v>1276128.07408</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1398394.96254</v>
+        <v>1408383.37843</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2184636.90431</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3452713.79422</v>
+        <v>3444386.40543</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2451851.08281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2463735.66771</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4160620.518</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>283619.21556</v>
@@ -1736,37 +1742,42 @@
         <v>357723.11315</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>603745.7588499999</v>
+        <v>603945.55777</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>430087.2330299999</v>
+        <v>430430.63485</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>888230.8577799998</v>
+        <v>888309.6558999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1052827.28282</v>
+        <v>1054331.50442</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1460248.90031</v>
+        <v>1476054.61483</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1411121.57476</v>
+        <v>1462451.54062</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1906429.23412</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>5450996.32325</v>
+        <v>5481629.56837</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3123347.51939</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3166888.9096</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5805364.439</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>13528.98912</v>
@@ -1796,16 +1807,21 @@
         <v>10892.31855</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>37393.92489</v>
+        <v>37393.92488999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>72097.97014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>72097.97013999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>17740.589</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1790.95318</v>
@@ -1838,13 +1854,18 @@
         <v>13628.3133</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>29764.91004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5129.433099999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4643.731</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>29598.42833</v>
@@ -1853,37 +1874,42 @@
         <v>23716.53963</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>23784.0852</v>
+        <v>23790.77296</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>28567.36327</v>
+        <v>28623.43718</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>33412.6513</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>32885.61833999999</v>
+        <v>33177.17816</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>42309.11108</v>
+        <v>46993.24944</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>51575.55382</v>
+        <v>52331.49548000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>88358.87775999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>96786.36563000001</v>
+        <v>97526.54665</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>126378.26382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>128042.93164</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>120504.275</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3708.02664</v>
@@ -1895,19 +1921,19 @@
         <v>5009.34191</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>5319.42803</v>
+        <v>5319.428029999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>8370.323890000001</v>
+        <v>8370.32389</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7661.790760000001</v>
+        <v>7661.79076</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>5516.18505</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>12090.66457</v>
+        <v>14843.55433</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>32274.46565</v>
@@ -1916,13 +1942,18 @@
         <v>21033.23069</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>25294.84725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>25449.31512</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>49783.289</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>8161.56134</v>
@@ -1937,16 +1968,16 @@
         <v>7481.54269</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>6039.08081</v>
+        <v>6039.080809999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8347.825649999999</v>
+        <v>8348.16864</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>6750.723869999999</v>
+        <v>6816.85777</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6812.11116</v>
+        <v>7071.27576</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>23156.84236</v>
@@ -1955,52 +1986,62 @@
         <v>29401.60929</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>30098.32315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>30145.69795</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>22637.994</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>356.21186</v>
+        <v>356.2118599999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>246.91553</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>700.2574700000001</v>
+        <v>700.25747</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>3646.02238</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>831.23919</v>
+        <v>831.2391899999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1647.82618</v>
+        <v>1649.49195</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11766.76441</v>
+        <v>11770.79039</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1987.85711</v>
+        <v>1987.85763</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1529.5956</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>24998.09776</v>
+        <v>24998.48477</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8040.36117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8043.98673</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>13874.837</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>199710.90721</v>
@@ -2009,37 +2050,42 @@
         <v>208999.16456</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>478202.58111</v>
+        <v>478395.20028</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>289913.84989</v>
+        <v>290201.09878</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>737084.1663500001</v>
+        <v>737162.9235700001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>868322.65525</v>
+        <v>869383.67412</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1298142.68666</v>
+        <v>1308993.59785</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1228936.05905</v>
+        <v>1267328.15259</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1603616.47681</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5021844.00475</v>
+        <v>5051841.54204</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2396719.76525</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2462699.74882</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5275108.651</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>175.60207</v>
@@ -2072,13 +2118,18 @@
         <v>69.55067</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>42877.39909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>42877.39909000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1664.548</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>98.95074000000001</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>107.98592</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>117.976</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>26489.58507</v>
@@ -2126,37 +2182,42 @@
         <v>111722.8506</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>91217.55301999999</v>
+        <v>91218.04500999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>83156.49737000001</v>
+        <v>83156.57639</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>74987.09969</v>
+        <v>74987.14059000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>102003.74913</v>
+        <v>102153.38328</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>77113.75413</v>
+        <v>77314.25921999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>98601.61371000001</v>
+        <v>107771.48949</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>142960.87379</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>205763.08866</v>
+        <v>205658.22846</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>391967.69356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>392294.44109</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>299288.549</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>240924.90423</v>
@@ -2165,37 +2226,42 @@
         <v>305066.09736</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>506082.63282</v>
+        <v>506807.0245700001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>385011.9818000001</v>
+        <v>385201.68096</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>844290.2164199998</v>
+        <v>844357.0451700001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>986084.1045400001</v>
+        <v>988211.25703</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1556538.31795</v>
+        <v>1567157.59197</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1485013.26215</v>
+        <v>1528194.71783</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1726289.59992</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5375552.30439</v>
+        <v>5401129.34373</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2782222.91772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2847809.23672</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6064843.139</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1025.7813</v>
@@ -2210,10 +2276,10 @@
         <v>6005.79286</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>8272.507109999999</v>
+        <v>8272.50711</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4443.31647</v>
+        <v>4450.424</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>7211.481739999999</v>
@@ -2225,16 +2291,21 @@
         <v>10571.50177</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>12635.73059</v>
+        <v>12639.56354</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11259.92775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11425.99806</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>14501.435</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>18798.60078</v>
@@ -2243,22 +2314,22 @@
         <v>23187.49766</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>8832.775379999999</v>
+        <v>8832.775380000001</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>48195.18842</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>16128.09633</v>
+        <v>16147.03435</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>22634.15095</v>
+        <v>23266.79794</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>36765.13781</v>
+        <v>36861.51676999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>70435.33504999999</v>
+        <v>71228.35883</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>22833.98936</v>
@@ -2267,13 +2338,18 @@
         <v>51578.50418</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>77856.80922</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>80715.54631000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>88069.284</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>128.45872</v>
@@ -2294,7 +2370,7 @@
         <v>1531.12607</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>319.6485699999999</v>
+        <v>319.64857</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>3991.12572</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1100.90522</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3465.441</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>204347.66144</v>
@@ -2321,40 +2402,45 @@
         <v>194244.71214</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>430322.49458</v>
+        <v>431046.76618</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>282298.94409</v>
+        <v>282488.37778</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>781230.0946300001</v>
+        <v>781277.98536</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>898380.97656</v>
+        <v>899841.73064</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1469557.16842</v>
+        <v>1480038.19426</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1350446.47211</v>
+        <v>1379538.98201</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1607638.43409</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5164793.736</v>
+        <v>5190363.8468</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2458207.73655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2520945.17075</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5738369.333</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>98.37886000000002</v>
+        <v>98.37886</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>96.63793</v>
@@ -2363,7 +2449,7 @@
         <v>26.46328</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>9.23912</v>
+        <v>9.239120000000002</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>48.69027000000001</v>
@@ -2375,7 +2461,7 @@
         <v>33.25324</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>7.1372</v>
+        <v>7.137200000000001</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>46.66528</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>964.64888</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>199.584</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>69.85170000000001</v>
@@ -2425,89 +2516,104 @@
       <c r="M42" s="48" t="n">
         <v>4e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.797</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16456.17143</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>85408.67663000002</v>
+        <v>85408.67663</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>62118.28588</v>
+        <v>62118.40603</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>47960.63196</v>
+        <v>47960.89743</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>38141.01962</v>
+        <v>38141.01962000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>58868.00117999999</v>
+        <v>58894.64507</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>42644.84587</v>
+        <v>42686.71509000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>49726.28969000001</v>
+        <v>63022.21169</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>84035.15964999999</v>
+        <v>84035.15965</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>143581.13615</v>
+        <v>143584.23174</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>232832.89006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>232656.96746</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>220235.265</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>85534.29122</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>63167.42665000001</v>
+        <v>63167.42665</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>96773.47932000001</v>
+        <v>96809.76209999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>95610.06117</v>
+        <v>95645.40006</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>196103.84203</v>
+        <v>196371.53193</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>214952.56445</v>
+        <v>216259.31837</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>314895.9569099999</v>
+        <v>333278.22675</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>291780.95231</v>
+        <v>295544.51925</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>335895.57535</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>429839.9977899999</v>
+        <v>430245.60197</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>385159.00044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>394817.6585200001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>510513.439</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>79392.7846</v>
@@ -2516,40 +2622,45 @@
         <v>49467.65443</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>64567.17718999999</v>
+        <v>64603.45997</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>83423.51217999999</v>
+        <v>83458.85106999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>110300.48362</v>
+        <v>110568.17352</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>120593.2568</v>
+        <v>121900.01072</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>156046.12389</v>
+        <v>158973.99728</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>176496.02334</v>
+        <v>180244.53448</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>232640.91399</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>353984.38797</v>
+        <v>354389.9921500001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>341455.6989899999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>351113.26199</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>399457.048</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>6141.506620000001</v>
+        <v>6141.506619999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>13699.77222</v>
@@ -2567,10 +2678,10 @@
         <v>94359.30764999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>158849.83302</v>
+        <v>174304.22947</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>115284.92897</v>
+        <v>115299.98477</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>103254.66136</v>
@@ -2579,13 +2690,18 @@
         <v>75855.60982</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>43703.30145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>43704.39653</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>111056.391</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>243628.5988</v>
@@ -2594,37 +2710,42 @@
         <v>209925.23054</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>302924.95006</v>
+        <v>301099.95154</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>172445.06667</v>
+        <v>172684.37942</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>182868.25355</v>
+        <v>182536.28953</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>468993.04283</v>
+        <v>467485.8179199999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>841703.57443</v>
+        <v>851746.8701899999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1032722.32284</v>
+        <v>1047095.68197</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2028880.96316</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3098317.81529</v>
+        <v>3094641.028099999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2407816.68404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2387997.68207</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3390628.379</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>68060.79904000001</v>
@@ -2633,43 +2754,48 @@
         <v>32348.15553</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>39709.30467</v>
+        <v>39711.89435</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>69234.88509000001</v>
+        <v>70934.06109</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>78610.07296</v>
+        <v>78619.83549</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>166864.70592</v>
+        <v>167126.0091</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>290628.17242</v>
+        <v>295906.45661</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>227028.80372</v>
+        <v>228679.1949</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>117669.75212</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>176647.70997</v>
+        <v>177674.47454</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>427109.53586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>429901.09775</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>371430.461</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3810.22985</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>4379.346550000001</v>
+        <v>4379.34655</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>3086.24941</v>
@@ -2684,25 +2810,30 @@
         <v>1353.74981</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1241.90996</v>
+        <v>1261.75534</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>4197.930609999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5426.93836</v>
+        <v>5426.938359999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>34601.54433</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>8666.1129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>9016.851000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11974.048</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>64250.56918999999</v>
@@ -2711,76 +2842,86 @@
         <v>27968.80898</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>36623.05526</v>
+        <v>36625.64494</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>68659.67523000001</v>
+        <v>70358.85123</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>76656.89117</v>
+        <v>76666.65370000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>165510.95611</v>
+        <v>165772.25929</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>289386.26246</v>
+        <v>294644.70127</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>222830.87311</v>
+        <v>224481.26429</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>112242.81376</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>142046.16564</v>
+        <v>143072.93021</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>418443.4229600001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>420884.24675</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>359456.413</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>46781.02256</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>82973.34964999999</v>
+        <v>82973.34965</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>303256.4484000001</v>
+        <v>303439.72443</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>102480.7946</v>
+        <v>102533.43663</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>88324.19740999999</v>
+        <v>88333.96906999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>255271.54233</v>
+        <v>256103.39517</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>150720.93993</v>
+        <v>153209.13511</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>309870.37892</v>
+        <v>310990.60614</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>130341.35257</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>393770.33935</v>
+        <v>396550.2989</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>384837.97714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>389122.63736</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>340130.924</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3484.42988</v>
@@ -2798,28 +2939,33 @@
         <v>3066.86843</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7989.85617</v>
+        <v>8776.360889999998</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>6256.72695</v>
+        <v>6256.72696</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>10286.65114</v>
+        <v>10297.88721</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>8125.55077</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3192.307</v>
+        <v>3201.02664</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5763.041539999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8078.08941</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>19213.644</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>11289.78107</v>
@@ -2831,73 +2977,83 @@
         <v>5970.52468</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>8038.14708</v>
+        <v>8038.147079999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7024.978010000002</v>
+        <v>7025.63401</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6244.128480000001</v>
+        <v>6262.531480000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>12270.50684</v>
+        <v>12285.07654</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>23865.4738</v>
+        <v>23866.0713</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>13400.07075</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>73917.88159999999</v>
+        <v>73937.51306</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>91023.83978000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>91043.52436</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>38136.936</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>32006.81161</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>68844.30865999998</v>
+        <v>68844.30866</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>295876.1966</v>
+        <v>296059.47263</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>91907.76715</v>
+        <v>91960.40918</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>78232.35097</v>
+        <v>78241.46663</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>241037.55768</v>
+        <v>241064.5028</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>132193.70614</v>
+        <v>134667.33161</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>275718.25398</v>
+        <v>276826.64763</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>108815.73105</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>316660.15075</v>
+        <v>319411.7592</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>288051.09582</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>290001.02359</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>282780.344</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>264908.37528</v>
@@ -2906,40 +3062,45 @@
         <v>159300.03642</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>39377.80633000001</v>
+        <v>37372.12146000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>139199.15716</v>
+        <v>141085.00388</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>173154.1291</v>
+        <v>172822.15595</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>380586.2064199999</v>
+        <v>378508.4318500001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>981610.8069200001</v>
+        <v>994444.1916899999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>949880.74764</v>
+        <v>964784.27073</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2016209.36271</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2881195.18591</v>
+        <v>2875765.20374</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2450088.24276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2428776.14246</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3421927.916</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>57393.57136</v>
+        <v>57393.57135999999</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>60043.33337000001</v>
@@ -2951,67 +3112,75 @@
         <v>68444.65231</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>81520.91086</v>
+        <v>81536.60931</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>115579.71055</v>
+        <v>115698.29223</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>183984.97041</v>
+        <v>185952.67725</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>263185.07873</v>
+        <v>268396.78246</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>405864.12358</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>591733.78069</v>
+        <v>593017.75514</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>305389.92382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>311231.42427</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>538425.997</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>207514.80392</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>99256.70305</v>
+        <v>99256.70305000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-38082.71297</v>
+        <v>-40088.39783999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>70754.50485000001</v>
+        <v>72640.35157</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>91633.21824000002</v>
+        <v>91285.54663999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>265006.49587</v>
+        <v>262810.13962</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>797625.8365099999</v>
+        <v>808491.5144399999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>686695.6689100001</v>
+        <v>696387.48827</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1610345.23913</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2289461.40522</v>
+        <v>2282747.4486</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2144698.31894</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2117544.71819</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2883501.919</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3677</v>
@@ -3038,34 +3210,37 @@
         <v>3917</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4106</v>
+        <v>4109</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4388</v>
+        <v>4392</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4996</v>
+        <v>5005</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5345</v>
+        <v>5358</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5651</v>
+        <v>5707</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5883</v>
+        <v>5925</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6368</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6268</v>
+        <v>6871</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6538</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7399</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>